--- a/src/test/resources/StudentInfo.xlsx
+++ b/src/test/resources/StudentInfo.xlsx
@@ -14,25 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Second Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Tom</t>
   </si>
@@ -333,92 +315,72 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3">
+        <v>8945612359</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5461237845</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8945612359</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6457894120</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5461237845</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6457894120</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
